--- a/data/testcase_mall.xlsx
+++ b/data/testcase_mall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm_workspace\python_automation\day_13_package\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A662A6-E9A9-40D7-A5B8-E628E691722D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DF33CC-1620-404B-A6EA-7783B76AE4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1995" windowWidth="12773" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="213">
   <si>
     <t>login_001</t>
   </si>
@@ -1120,6 +1120,10 @@
   </si>
   <si>
     <t>{"orderNumbers":"$..orderNumbers"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>login successful</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2279,7 +2283,7 @@
     <col min="11" max="11" width="30.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.5">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
@@ -2555,7 +2559,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2608,8 +2612,8 @@
       <c r="A2" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>179</v>
+      <c r="B2" s="35" t="s">
+        <v>212</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>69</v>
